--- a/hasil prediksi/hasil_prediksi.xlsx
+++ b/hasil prediksi/hasil_prediksi.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\python\mba amel\sms_fraud_detection\hasil prediksi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC594989-ABF5-4256-91EC-FC36F16722E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="294">
   <si>
     <t>prediksi</t>
   </si>
@@ -611,9 +617,6 @@
   </si>
   <si>
     <t>Sudah bayar tagihan air? di LinkAja bisa loh bayar tagihan PDAM BEBAS REPOT Cukup dr HP km sj! jgn lupa ada byk promo menarik lainnya. Cek skrg di lnkj.me/promo</t>
-  </si>
-  <si>
-    <t>Bank BRI a/n Hendar Suhendar. Nmr reknya: 4361-01-014665-533.</t>
   </si>
   <si>
     <t>Gunakan kode 2446 untuk masuk ke akun DANA. Kode berlaku untuk 10 menit. Mohon jaga kerahasiaan kode tersebut.</t>
@@ -904,8 +907,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +971,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1014,7 +1025,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,9 +1057,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,6 +1109,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1255,14 +1302,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C291"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="G282" sqref="G282"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1281,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1292,7 +1341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1303,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1314,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1325,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1336,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1347,7 +1396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1358,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1369,7 +1418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1380,7 +1429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1391,7 +1440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1402,7 +1451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1413,18 +1462,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1435,7 +1484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1446,29 +1495,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1479,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1490,7 +1539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1501,7 +1550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1512,7 +1561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1523,7 +1572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1534,7 +1583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1545,18 +1594,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1567,7 +1616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1578,7 +1627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1589,7 +1638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1600,7 +1649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1611,7 +1660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1622,7 +1671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1633,7 +1682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1644,18 +1693,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1666,18 +1715,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1688,7 +1737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1699,7 +1748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1710,7 +1759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1721,7 +1770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1732,7 +1781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1743,7 +1792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1754,7 +1803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1765,7 +1814,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1776,7 +1825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1787,7 +1836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1798,7 +1847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1809,7 +1858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1820,7 +1869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1831,7 +1880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1842,7 +1891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1853,7 +1902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1864,29 +1913,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1897,7 +1946,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1908,7 +1957,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1919,7 +1968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1930,18 +1979,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1952,7 +2001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1963,7 +2012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1974,7 +2023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1985,7 +2034,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1996,18 +2045,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2018,7 +2067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2029,7 +2078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2040,7 +2089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2051,7 +2100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2062,7 +2111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2073,7 +2122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2084,18 +2133,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2106,7 +2155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2117,7 +2166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2128,29 +2177,29 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2161,7 +2210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2172,7 +2221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2183,7 +2232,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2194,7 +2243,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2205,7 +2254,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2216,7 +2265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2227,7 +2276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2238,7 +2287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2249,18 +2298,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2271,7 +2320,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2282,7 +2331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2293,7 +2342,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2304,7 +2353,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2315,7 +2364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2326,29 +2375,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2359,7 +2408,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2370,18 +2419,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2392,7 +2441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2403,7 +2452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2414,7 +2463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2425,7 +2474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2436,7 +2485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2447,7 +2496,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2458,7 +2507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2469,7 +2518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2480,29 +2529,29 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2513,18 +2562,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2535,7 +2584,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2546,7 +2595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2557,7 +2606,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2568,51 +2617,51 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2623,7 +2672,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2634,7 +2683,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2645,7 +2694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2656,7 +2705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2667,7 +2716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2678,7 +2727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2689,7 +2738,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2700,7 +2749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2711,7 +2760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2722,7 +2771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2733,18 +2782,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2755,18 +2804,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2777,7 +2826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2788,7 +2837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2799,29 +2848,29 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2832,18 +2881,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2854,7 +2903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2865,7 +2914,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2876,7 +2925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2887,7 +2936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2898,40 +2947,40 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2942,7 +2991,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2953,7 +3002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2964,7 +3013,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2975,18 +3024,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2997,7 +3046,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3008,7 +3057,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3019,7 +3068,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3030,7 +3079,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3041,7 +3090,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3052,7 +3101,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3063,7 +3112,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3074,7 +3123,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3085,18 +3134,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3107,7 +3156,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3118,7 +3167,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3129,7 +3178,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3140,18 +3189,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3162,7 +3211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3173,7 +3222,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3184,7 +3233,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3195,7 +3244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3206,7 +3255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3217,7 +3266,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3228,18 +3277,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3250,7 +3299,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3261,7 +3310,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3272,7 +3321,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3283,7 +3332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3294,7 +3343,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3305,7 +3354,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3316,7 +3365,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3327,7 +3376,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3338,7 +3387,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3349,7 +3398,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3360,7 +3409,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3371,7 +3420,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3382,18 +3431,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C194" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3404,53 +3453,53 @@
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C196" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C198" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -3459,31 +3508,31 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -3492,31 +3541,31 @@
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C205" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -3525,31 +3574,31 @@
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C208" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -3558,53 +3607,53 @@
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C211" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C213" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
@@ -3613,64 +3662,64 @@
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C215" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C216" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C218" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -3679,9 +3728,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -3690,31 +3739,31 @@
         <v>224</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C223" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -3723,9 +3772,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -3734,9 +3783,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -3745,9 +3794,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -3756,31 +3805,31 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C229" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
@@ -3789,31 +3838,31 @@
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C232" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>3</v>
@@ -3822,31 +3871,31 @@
         <v>236</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C235" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
@@ -3855,9 +3904,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
@@ -3866,9 +3915,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
@@ -3877,64 +3926,64 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C239" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C240" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C242" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C243" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
@@ -3943,97 +3992,97 @@
         <v>247</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C245" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C246" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C248" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C249" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C250" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>3</v>
@@ -4042,31 +4091,31 @@
         <v>256</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C254" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C255" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -4075,42 +4124,42 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C257" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C258" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -4119,9 +4168,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
@@ -4130,42 +4179,42 @@
         <v>264</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C263" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
@@ -4174,53 +4223,53 @@
         <v>268</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C266" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C267" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C268" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C269" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
@@ -4229,9 +4278,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
@@ -4240,9 +4289,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>3</v>
@@ -4251,9 +4300,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>3</v>
@@ -4262,9 +4311,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -4273,9 +4322,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>3</v>
@@ -4284,9 +4333,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>3</v>
@@ -4295,9 +4344,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>3</v>
@@ -4306,20 +4355,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C278" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
@@ -4328,9 +4377,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>3</v>
@@ -4339,9 +4388,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>3</v>
@@ -4350,42 +4399,42 @@
         <v>284</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C282" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C283" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C284" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>3</v>
@@ -4394,9 +4443,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>3</v>
@@ -4405,31 +4454,31 @@
         <v>289</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C288" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>3</v>
@@ -4438,26 +4487,15 @@
         <v>292</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>3</v>
       </c>
       <c r="C290" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>3</v>
-      </c>
-      <c r="C291" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
